--- a/SIS.Principal/Reporte/Inventario/Excel/Kardex_Valorizado_admin.xlsx
+++ b/SIS.Principal/Reporte/Inventario/Excel/Kardex_Valorizado_admin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>FORMATO 13.1: "REGISTRO DE INVENTARIO PERMANENTE VALORIZADO - DETALLE DEL INVENTARIO VALORIZADO"</t>
   </si>
@@ -22,7 +22,7 @@
     <t>PERÍODO:</t>
   </si>
   <si>
-    <t>AGOSTO 2020</t>
+    <t>NOVIEMBRE 2022</t>
   </si>
   <si>
     <t>RUC:</t>
@@ -46,7 +46,7 @@
     <t>CÓDIGO DE LA EXISTENCIA:</t>
   </si>
   <si>
-    <t>3KLI-6201</t>
+    <t>3XX-6420</t>
   </si>
   <si>
     <t>TIPO (TABLA 5):</t>
@@ -58,7 +58,7 @@
     <t>DESCRIPCIÓN:</t>
   </si>
   <si>
-    <t>BOLSA PARA CELULAR 3KLJ-6201</t>
+    <t>LUCES</t>
   </si>
   <si>
     <t>CÓDIGO DE LA UNIDAD DE MEDIDA (TABLA 6):</t>
@@ -118,7 +118,7 @@
     <t>(TABLA 12)</t>
   </si>
   <si>
-    <t>16/12/2020</t>
+    <t>15/11/2022</t>
   </si>
   <si>
     <t>01</t>
@@ -127,7 +127,7 @@
     <t>001</t>
   </si>
   <si>
-    <t>00001</t>
+    <t>46964</t>
   </si>
   <si>
     <t>SALDO INICIAL</t>
@@ -136,22 +136,16 @@
     <t/>
   </si>
   <si>
-    <t>05/01/2021</t>
-  </si>
-  <si>
-    <t>00349</t>
-  </si>
-  <si>
-    <t>08/01/2021</t>
-  </si>
-  <si>
-    <t>00465</t>
-  </si>
-  <si>
-    <t>18/01/2021</t>
-  </si>
-  <si>
-    <t>00818</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>47058</t>
+  </si>
+  <si>
+    <t>SALIDA POR IDENTIFICACIÓN ERRONEA</t>
+  </si>
+  <si>
+    <t>47059</t>
   </si>
   <si>
     <t>TOTALES</t>
@@ -1159,7 +1153,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="33">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="G17" s="34">
         <v>0</v>
@@ -1177,7 +1171,7 @@
         <v>39</v>
       </c>
       <c r="L17" s="33">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="M17" s="35">
         <v>0</v>
@@ -1188,10 +1182,10 @@
     </row>
     <row r="18">
       <c r="A18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>36</v>
@@ -1200,42 +1194,42 @@
         <v>41</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="33">
-        <v>500</v>
-      </c>
-      <c r="G18" s="34">
-        <v>1</v>
-      </c>
-      <c r="H18" s="34">
-        <v>500</v>
-      </c>
-      <c r="I18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="G18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="H18" s="34" t="s">
         <v>39</v>
       </c>
+      <c r="I18" s="33">
+        <v>28000</v>
+      </c>
+      <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="34">
+        <v>0</v>
+      </c>
       <c r="L18" s="33">
-        <v>15500</v>
+        <v>21000</v>
       </c>
       <c r="M18" s="35">
-        <v>0.032000001519918442</v>
+        <v>0</v>
       </c>
       <c r="N18" s="35">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>36</v>
@@ -1244,79 +1238,51 @@
         <v>43</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="33">
-        <v>500</v>
-      </c>
-      <c r="G19" s="34">
-        <v>1</v>
-      </c>
-      <c r="H19" s="34">
-        <v>500</v>
-      </c>
-      <c r="I19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="G19" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="H19" s="34" t="s">
         <v>39</v>
       </c>
+      <c r="I19" s="33">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="34">
+        <v>0</v>
+      </c>
+      <c r="K19" s="34">
+        <v>0</v>
+      </c>
       <c r="L19" s="33">
-        <v>16000</v>
+        <v>49000</v>
       </c>
       <c r="M19" s="35">
-        <v>0.063000001013278961</v>
+        <v>0</v>
       </c>
       <c r="N19" s="35">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="33">
-        <v>250</v>
-      </c>
-      <c r="G20" s="34">
-        <v>1</v>
-      </c>
-      <c r="H20" s="34">
-        <v>250</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="33">
-        <v>16250</v>
-      </c>
-      <c r="M20" s="35">
-        <v>0.076999999582767487</v>
-      </c>
-      <c r="N20" s="35">
-        <v>1250</v>
-      </c>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
     </row>
     <row r="21">
       <c r="A21" s="31"/>
@@ -1596,17 +1562,17 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" s="8">
-        <v>16250</v>
+        <v>50000</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I38" s="8">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9">

--- a/SIS.Principal/Reporte/Inventario/Excel/Kardex_Valorizado_admin.xlsx
+++ b/SIS.Principal/Reporte/Inventario/Excel/Kardex_Valorizado_admin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>FORMATO 13.1: "REGISTRO DE INVENTARIO PERMANENTE VALORIZADO - DETALLE DEL INVENTARIO VALORIZADO"</t>
   </si>
@@ -46,7 +46,7 @@
     <t>CÓDIGO DE LA EXISTENCIA:</t>
   </si>
   <si>
-    <t>3XX-6420</t>
+    <t>SB-40</t>
   </si>
   <si>
     <t>TIPO (TABLA 5):</t>
@@ -58,7 +58,7 @@
     <t>DESCRIPCIÓN:</t>
   </si>
   <si>
-    <t>LUCES</t>
+    <t>VENTILADOR PARA PARED</t>
   </si>
   <si>
     <t>CÓDIGO DE LA UNIDAD DE MEDIDA (TABLA 6):</t>
@@ -118,7 +118,7 @@
     <t>(TABLA 12)</t>
   </si>
   <si>
-    <t>15/11/2022</t>
+    <t>28/11/2022</t>
   </si>
   <si>
     <t>01</t>
@@ -127,7 +127,7 @@
     <t>001</t>
   </si>
   <si>
-    <t>46964</t>
+    <t>47928</t>
   </si>
   <si>
     <t>SALDO INICIAL</t>
@@ -139,13 +139,76 @@
     <t>31</t>
   </si>
   <si>
-    <t>47058</t>
-  </si>
-  <si>
-    <t>SALIDA POR IDENTIFICACIÓN ERRONEA</t>
-  </si>
-  <si>
-    <t>47059</t>
+    <t>47938</t>
+  </si>
+  <si>
+    <t>VENTA NACIONAL</t>
+  </si>
+  <si>
+    <t>22/12/2022</t>
+  </si>
+  <si>
+    <t>49290</t>
+  </si>
+  <si>
+    <t>03/01/2023</t>
+  </si>
+  <si>
+    <t>49913</t>
+  </si>
+  <si>
+    <t>15/02/2023</t>
+  </si>
+  <si>
+    <t>53031</t>
+  </si>
+  <si>
+    <t>16/02/2023</t>
+  </si>
+  <si>
+    <t>53047</t>
+  </si>
+  <si>
+    <t>18/02/2023</t>
+  </si>
+  <si>
+    <t>53196</t>
+  </si>
+  <si>
+    <t>53201</t>
+  </si>
+  <si>
+    <t>23/02/2023</t>
+  </si>
+  <si>
+    <t>53437</t>
+  </si>
+  <si>
+    <t>25/02/2023</t>
+  </si>
+  <si>
+    <t>53512</t>
+  </si>
+  <si>
+    <t>07/03/2023</t>
+  </si>
+  <si>
+    <t>53988</t>
+  </si>
+  <si>
+    <t>27/03/2023</t>
+  </si>
+  <si>
+    <t>55109</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
+    <t>55368</t>
+  </si>
+  <si>
+    <t>55375</t>
   </si>
   <si>
     <t>TOTALES</t>
@@ -1153,7 +1216,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="33">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="34">
         <v>0</v>
@@ -1171,13 +1234,13 @@
         <v>39</v>
       </c>
       <c r="L17" s="33">
-        <v>50000</v>
+        <v>980</v>
       </c>
       <c r="M17" s="35">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N17" s="35">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18">
@@ -1206,27 +1269,27 @@
         <v>39</v>
       </c>
       <c r="I18" s="33">
-        <v>28000</v>
+        <v>8</v>
       </c>
       <c r="J18" s="34">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K18" s="34">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="L18" s="33">
-        <v>21000</v>
+        <v>16</v>
       </c>
       <c r="M18" s="35">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N18" s="35">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="31" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>40</v>
@@ -1235,7 +1298,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>42</v>
@@ -1250,199 +1313,507 @@
         <v>39</v>
       </c>
       <c r="I19" s="33">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J19" s="34">
+        <v>47</v>
+      </c>
+      <c r="K19" s="34">
+        <v>4700</v>
+      </c>
+      <c r="L19" s="33">
+        <v>20</v>
+      </c>
+      <c r="M19" s="35">
+        <v>-347.10501098632813</v>
+      </c>
+      <c r="N19" s="35">
+        <v>6942.091796875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="33">
+        <v>20</v>
+      </c>
+      <c r="J20" s="34">
+        <v>47</v>
+      </c>
+      <c r="K20" s="34">
+        <v>940</v>
+      </c>
+      <c r="L20" s="33">
+        <v>140</v>
+      </c>
+      <c r="M20" s="35">
+        <v>-9.300999641418457</v>
+      </c>
+      <c r="N20" s="35">
+        <v>1302.092041015625</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="33">
+        <v>2</v>
+      </c>
+      <c r="J21" s="34">
+        <v>47</v>
+      </c>
+      <c r="K21" s="34">
+        <v>94</v>
+      </c>
+      <c r="L21" s="33">
+        <v>2</v>
+      </c>
+      <c r="M21" s="35">
         <v>0</v>
       </c>
-      <c r="K19" s="34">
+      <c r="N21" s="35">
         <v>0</v>
       </c>
-      <c r="L19" s="33">
-        <v>49000</v>
-      </c>
-      <c r="M19" s="35">
+    </row>
+    <row r="22">
+      <c r="A22" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="33">
+        <v>2</v>
+      </c>
+      <c r="J22" s="34">
+        <v>47</v>
+      </c>
+      <c r="K22" s="34">
+        <v>94</v>
+      </c>
+      <c r="L22" s="33">
+        <v>976</v>
+      </c>
+      <c r="M22" s="35">
+        <v>-1.0590000152587891</v>
+      </c>
+      <c r="N22" s="35">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="33">
+        <v>2</v>
+      </c>
+      <c r="J23" s="34">
+        <v>47</v>
+      </c>
+      <c r="K23" s="34">
+        <v>94</v>
+      </c>
+      <c r="L23" s="33">
+        <v>160</v>
+      </c>
+      <c r="M23" s="35">
+        <v>-2.2630000114440918</v>
+      </c>
+      <c r="N23" s="35">
+        <v>362.09201049804688</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="33">
+        <v>2</v>
+      </c>
+      <c r="J24" s="34">
+        <v>47</v>
+      </c>
+      <c r="K24" s="34">
+        <v>94</v>
+      </c>
+      <c r="L24" s="33">
+        <v>162</v>
+      </c>
+      <c r="M24" s="35">
+        <v>-1.6549999713897705</v>
+      </c>
+      <c r="N24" s="35">
+        <v>268.09201049804688</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="33">
+        <v>2</v>
+      </c>
+      <c r="J25" s="34">
+        <v>47</v>
+      </c>
+      <c r="K25" s="34">
+        <v>94</v>
+      </c>
+      <c r="L25" s="33">
+        <v>978</v>
+      </c>
+      <c r="M25" s="35">
+        <v>-0.96100002527236938</v>
+      </c>
+      <c r="N25" s="35">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="33">
+        <v>4</v>
+      </c>
+      <c r="J26" s="34">
+        <v>47</v>
+      </c>
+      <c r="K26" s="34">
+        <v>188</v>
+      </c>
+      <c r="L26" s="33">
+        <v>20</v>
+      </c>
+      <c r="M26" s="35">
+        <v>47</v>
+      </c>
+      <c r="N26" s="35">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="33">
+        <v>20</v>
+      </c>
+      <c r="J27" s="34">
+        <v>47</v>
+      </c>
+      <c r="K27" s="34">
+        <v>940</v>
+      </c>
+      <c r="L27" s="33">
         <v>0</v>
       </c>
-      <c r="N19" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
+      <c r="M27" s="35">
+        <v>47</v>
+      </c>
+      <c r="N27" s="35">
+        <v>7882.091796875</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
+      <c r="A28" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="33">
+        <v>20</v>
+      </c>
+      <c r="J28" s="34">
+        <v>47</v>
+      </c>
+      <c r="K28" s="34">
+        <v>940</v>
+      </c>
+      <c r="L28" s="33">
+        <v>120</v>
+      </c>
+      <c r="M28" s="35">
+        <v>-18.684000015258789</v>
+      </c>
+      <c r="N28" s="35">
+        <v>2242.092041015625</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
+      <c r="A29" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="33">
+        <v>6</v>
+      </c>
+      <c r="J29" s="34">
+        <v>47</v>
+      </c>
+      <c r="K29" s="34">
+        <v>282</v>
+      </c>
+      <c r="L29" s="33">
+        <v>8</v>
+      </c>
+      <c r="M29" s="35">
+        <v>47</v>
+      </c>
+      <c r="N29" s="35">
+        <v>282</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
+      <c r="A30" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="33">
+        <v>812</v>
+      </c>
+      <c r="J30" s="34">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="34">
+        <v>-812</v>
+      </c>
+      <c r="L30" s="33">
+        <v>164</v>
+      </c>
+      <c r="M30" s="35">
+        <v>-1.062000036239624</v>
+      </c>
+      <c r="N30" s="35">
+        <v>174.09199523925781</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="31"/>
@@ -1562,21 +1933,21 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F38" s="8">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9">
         <v>0</v>
       </c>
       <c r="I38" s="8">
-        <v>29000</v>
+        <v>1000</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9">
-        <v>0</v>
+        <v>8024</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="11"/>
